--- a/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
@@ -76,10 +76,10 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
-    <xdr:pos x="2095792" y="1428949"/>
+    <xdr:pos x="2086266" y="1419423"/>
     <xdr:ext cx="2400635" cy="1448002"/>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -138,7 +138,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>

--- a/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
@@ -89,7 +89,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Image10" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="rId7" cstate="print"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -120,7 +120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Image11" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="rId8" cstate="print"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -161,7 +161,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Image20" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="rId10" cstate="print"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -477,7 +477,7 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Image10"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -497,7 +497,7 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Image20"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
@@ -77,29 +77,29 @@
 </file>
 
 <file path=xl/drawings/drawing.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
-    <xdr:pos x="2095792" y="1428949"/>
-    <xdr:ext cx="2400635" cy="1448002"/>
+    <xdr:pos x="2095500" y="1428750"/>
+    <xdr:ext cx="2400300" cy="1447800"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Image10"/>
         <xdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noMove="1" noResize="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="rId7" cstate="print"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId7" cstate="print"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2400635" cy="1448002"/>
+          <a:ext cx="2400300" cy="1447800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -111,26 +111,26 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400635" cy="1448002"/>
+    <xdr:ext cx="2400300" cy="1447800"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image11"/>
         <xdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noMove="1" noResize="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="rId8" cstate="print"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId8" cstate="print"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2400635" cy="1448002"/>
+          <a:ext cx="2400300" cy="1447800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -157,21 +157,21 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Image20"/>
         <xdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noMove="1" noResize="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="rId10" cstate="print"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId10" cstate="print"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2400635" cy="1448002"/>
+          <a:ext cx="2400300" cy="1447800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -467,12 +467,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:1"/>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -487,12 +492,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:G9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:cols>
+    <x:col min="1" max="7" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="6" spans="1:7"/>
+    <x:row r="9" spans="1:7"/>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
@@ -6,8 +6,10 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Images" sheetId="2" r:id="rId2"/>
-    <x:sheet name="MoreImages" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Images1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Images2" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Images3" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Images4" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -89,7 +91,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -120,7 +122,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
+        <a:blip r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -161,7 +163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -176,6 +178,145 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3810000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3810000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="952500" y="952500"/>
+    <xdr:ext cx="3810000" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3810000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -472,9 +613,6 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1"/>
   </x:sheetData>
@@ -482,7 +620,7 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -497,9 +635,6 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="7" width="9.140625" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData>
     <x:row r="6" spans="1:7"/>
     <x:row r="9" spans="1:7"/>
@@ -508,7 +643,55 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E10"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="2" spans="1:5"/>
+    <x:row r="5" spans="1:5"/>
+    <x:row r="6" spans="1:5"/>
+    <x:row r="9" spans="1:5"/>
+    <x:row r="10" spans="1:5"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
@@ -78,7 +78,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
     <xdr:pos x="2095500" y="1428750"/>
@@ -320,7 +320,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -603,7 +603,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
@@ -613,9 +613,7 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -635,10 +633,7 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="6" spans="1:7"/>
-    <x:row r="9" spans="1:7"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -658,13 +653,7 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="2" spans="1:5"/>
-    <x:row r="5" spans="1:5"/>
-    <x:row r="6" spans="1:5"/>
-    <x:row r="9" spans="1:5"/>
-    <x:row r="10" spans="1:5"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -684,9 +673,7 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ImageHandling/ImageAnchors.xlsx
@@ -81,8 +81,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
-    <xdr:pos x="2095500" y="1428750"/>
-    <xdr:ext cx="2400300" cy="1447800"/>
+    <xdr:pos x="2794000" y="1905000"/>
+    <xdr:ext cx="3200400" cy="1930400"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Image10"/>
@@ -99,7 +99,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2400300" cy="1447800"/>
+          <a:ext cx="3200400" cy="1930400"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -113,7 +113,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="1447800"/>
+    <xdr:ext cx="3200400" cy="1930400"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image11"/>
@@ -130,7 +130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2400300" cy="1447800"/>
+          <a:ext cx="3200400" cy="1930400"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -171,7 +171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2400300" cy="1447800"/>
+          <a:ext cx="3200400" cy="1930400"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -212,7 +212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
+          <a:ext cx="5080000" cy="5080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -222,15 +222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -248,7 +248,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
+          <a:ext cx="5080000" cy="5080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -262,7 +262,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="762000" cy="762000"/>
+    <xdr:ext cx="1016000" cy="1016000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 3"/>
@@ -279,7 +279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="762000" cy="762000"/>
+          <a:ext cx="1016000" cy="1016000"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -292,8 +292,8 @@
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:absoluteAnchor>
-    <xdr:pos x="952500" y="952500"/>
-    <xdr:ext cx="3810000" cy="3810000"/>
+    <xdr:pos x="1270000" y="1270000"/>
+    <xdr:ext cx="5080000" cy="5080000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1"/>
@@ -310,7 +310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3810000" cy="3810000"/>
+          <a:ext cx="5080000" cy="5080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
